--- a/data/trans_orig/P74B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A73FD52F-DE57-4E75-BD26-36902CBA8FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59622C59-09DB-4E52-9DF1-5B1DA9A7B563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52C44724-9A21-4A10-9699-99063FA53A3E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC53AF26-9A98-4C87-B498-BFC94A930B61}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -76,28 +76,28 @@
     <t>12,98%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>45,4%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>87,02%</t>
   </si>
   <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>54,6%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,16 +139,16 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>63,55%</t>
   </si>
   <si>
-    <t>55,03%</t>
+    <t>54,72%</t>
   </si>
   <si>
     <t>71,01%</t>
@@ -157,19 +157,19 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>36,45%</t>
@@ -178,16 +178,16 @@
     <t>28,99%</t>
   </si>
   <si>
-    <t>44,97%</t>
+    <t>45,28%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,70 +196,64 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>79,55%</t>
+    <t>79,86%</t>
   </si>
   <si>
     <t>85,86%</t>
@@ -268,19 +262,19 @@
     <t>30,31%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>17,1%</t>
@@ -289,16 +283,16 @@
     <t>14,14%</t>
   </si>
   <si>
-    <t>20,45%</t>
+    <t>20,14%</t>
   </si>
   <si>
     <t>69,69%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,430 +304,436 @@
     <t>19,97%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
     <t>76,54%</t>
   </si>
   <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>84,29%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>49,24%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>53,57%</t>
   </si>
   <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>23,63%</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>46,43%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>76,37%</t>
   </si>
   <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>8,33%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>91,67%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
   <si>
     <t>76,82%</t>
   </si>
   <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A94E4FC-FA7D-4229-8522-52D9B1532C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A00BAA-EA40-4F8C-BCCC-791D58E4904F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1609,13 +1609,13 @@
         <v>25547</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1630,13 @@
         <v>144397</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1645,13 +1645,13 @@
         <v>2966</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>141</v>
@@ -1660,13 +1660,13 @@
         <v>147363</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1734,13 @@
         <v>107100</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>505</v>
@@ -1749,13 +1749,13 @@
         <v>507414</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>613</v>
@@ -1764,13 +1764,13 @@
         <v>614514</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>1308412</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -1800,13 +1800,13 @@
         <v>104662</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1399</v>
@@ -1815,13 +1815,13 @@
         <v>1413074</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7A60C4-CD0C-433A-89DE-3F8720E3AEAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F6EEBA-969D-43DF-AD89-CF53B8B847E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1913,7 +1913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2020,13 +2020,13 @@
         <v>109619</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>421</v>
@@ -2035,13 +2035,13 @@
         <v>446925</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>520</v>
@@ -2050,13 +2050,13 @@
         <v>556544</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2071,13 @@
         <v>439360</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -2086,13 +2086,13 @@
         <v>110159</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>512</v>
@@ -2101,13 +2101,13 @@
         <v>549519</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2175,13 @@
         <v>49672</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>132</v>
@@ -2190,13 +2190,13 @@
         <v>152906</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -2205,13 +2205,13 @@
         <v>202578</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2226,13 @@
         <v>662212</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -2241,13 +2241,13 @@
         <v>164722</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>780</v>
@@ -2256,13 +2256,13 @@
         <v>826933</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2330,13 @@
         <v>13574</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -2345,13 +2345,13 @@
         <v>25810</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2360,13 +2360,13 @@
         <v>39383</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2381,13 @@
         <v>99882</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -2396,13 +2396,13 @@
         <v>18170</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -2411,13 +2411,13 @@
         <v>118053</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2485,13 @@
         <v>172865</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>574</v>
@@ -2500,13 +2500,13 @@
         <v>625640</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>726</v>
@@ -2515,13 +2515,13 @@
         <v>798505</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2536,13 @@
         <v>1201454</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -2551,13 +2551,13 @@
         <v>293051</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1395</v>
@@ -2566,13 +2566,13 @@
         <v>1494505</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,7 +2628,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B1004B-86F6-4FAF-BF5E-083FEF5E40AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A973B07-9549-42E9-AA72-FBE38D1EA1C9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2771,13 +2771,13 @@
         <v>78652</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>310</v>
@@ -2786,13 +2786,13 @@
         <v>353167</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>393</v>
@@ -2801,13 +2801,13 @@
         <v>431819</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2822,13 @@
         <v>328215</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -2837,13 +2837,13 @@
         <v>90722</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>422</v>
@@ -2852,13 +2852,13 @@
         <v>418937</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2926,13 @@
         <v>70212</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>187</v>
@@ -2941,13 +2941,13 @@
         <v>211470</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>254</v>
@@ -2956,13 +2956,13 @@
         <v>281682</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2977,13 @@
         <v>727337</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>175</v>
@@ -2992,13 +2992,13 @@
         <v>183253</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>860</v>
@@ -3007,13 +3007,13 @@
         <v>910589</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3081,13 @@
         <v>20221</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3096,13 +3096,13 @@
         <v>27206</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -3111,13 +3111,13 @@
         <v>47427</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,10 +3132,10 @@
         <v>127588</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>207</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59622C59-09DB-4E52-9DF1-5B1DA9A7B563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF558EA4-ED76-426E-966E-844B56D650B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC53AF26-9A98-4C87-B498-BFC94A930B61}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3CCCE45-F6CC-4B6E-9FA7-BA26E751F501}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -76,664 +76,670 @@
     <t>12,98%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
   </si>
   <si>
     <t>76,82%</t>
   </si>
   <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A00BAA-EA40-4F8C-BCCC-791D58E4904F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18495458-CE0C-44A8-89B0-99F24C6D61C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1609,13 +1615,13 @@
         <v>25547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1636,13 @@
         <v>144397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1645,13 +1651,13 @@
         <v>2966</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>141</v>
@@ -1660,13 +1666,13 @@
         <v>147363</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1740,13 @@
         <v>107100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>505</v>
@@ -1749,13 +1755,13 @@
         <v>507414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>613</v>
@@ -1764,13 +1770,13 @@
         <v>614514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1791,13 @@
         <v>1308412</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -1800,13 +1806,13 @@
         <v>104662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1399</v>
@@ -1815,13 +1821,13 @@
         <v>1413074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1883,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F6EEBA-969D-43DF-AD89-CF53B8B847E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04338AB8-8988-4E85-9CF2-0DAC83097FB0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1913,7 +1919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2020,13 +2026,13 @@
         <v>109619</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>421</v>
@@ -2035,13 +2041,13 @@
         <v>446925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>520</v>
@@ -2050,13 +2056,13 @@
         <v>556544</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,28 +2077,28 @@
         <v>439360</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
       </c>
       <c r="I5" s="7">
-        <v>110159</v>
+        <v>110158</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>512</v>
@@ -2101,13 +2107,13 @@
         <v>549519</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,7 +2140,7 @@
         <v>522</v>
       </c>
       <c r="I6" s="7">
-        <v>557084</v>
+        <v>557083</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2175,13 +2181,13 @@
         <v>49672</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>132</v>
@@ -2190,13 +2196,13 @@
         <v>152906</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -2205,13 +2211,13 @@
         <v>202578</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2232,13 @@
         <v>662212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -2241,13 +2247,13 @@
         <v>164722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>780</v>
@@ -2256,13 +2262,13 @@
         <v>826933</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2336,13 @@
         <v>13574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -2345,13 +2351,13 @@
         <v>25810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2360,13 +2366,13 @@
         <v>39383</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2387,13 @@
         <v>99882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -2396,13 +2402,13 @@
         <v>18170</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -2411,13 +2417,13 @@
         <v>118053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2491,13 @@
         <v>172865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>574</v>
@@ -2500,13 +2506,13 @@
         <v>625640</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>726</v>
@@ -2515,13 +2521,13 @@
         <v>798505</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2542,13 @@
         <v>1201454</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -2551,13 +2557,13 @@
         <v>293051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1395</v>
@@ -2566,13 +2572,13 @@
         <v>1494505</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,7 +2634,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A973B07-9549-42E9-AA72-FBE38D1EA1C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93870F41-4E0D-4353-B0BB-1E5234BA4F35}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2771,13 +2777,13 @@
         <v>78652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>310</v>
@@ -2786,13 +2792,13 @@
         <v>353167</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>393</v>
@@ -2801,13 +2807,13 @@
         <v>431819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2828,13 @@
         <v>328215</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -2837,13 +2843,13 @@
         <v>90722</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>422</v>
@@ -2852,13 +2858,13 @@
         <v>418937</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2932,13 @@
         <v>70212</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>187</v>
@@ -2941,13 +2947,13 @@
         <v>211470</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>254</v>
@@ -2956,13 +2962,13 @@
         <v>281682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2983,13 @@
         <v>727337</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>175</v>
@@ -2992,13 +2998,13 @@
         <v>183253</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>860</v>
@@ -3007,13 +3013,13 @@
         <v>910589</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3087,13 @@
         <v>20221</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3096,13 +3102,13 @@
         <v>27206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -3111,13 +3117,13 @@
         <v>47427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3138,13 @@
         <v>127588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -3147,13 +3153,13 @@
         <v>29550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
@@ -3162,13 +3168,13 @@
         <v>157137</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3242,13 @@
         <v>169085</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>520</v>
@@ -3251,13 +3257,13 @@
         <v>591843</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>689</v>
@@ -3266,13 +3272,13 @@
         <v>760928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3293,13 @@
         <v>1183139</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -3302,13 +3308,13 @@
         <v>303524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1428</v>
@@ -3317,13 +3323,13 @@
         <v>1486664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3385,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF558EA4-ED76-426E-966E-844B56D650B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5950096A-B85C-4A3C-98C9-53EE4DFE8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3CCCE45-F6CC-4B6E-9FA7-BA26E751F501}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B52056DD-4BCA-41C0-B2AB-7FD6B4C30C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>12,98%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>45,4%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>87,02%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>54,6%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>63,55%</t>
   </si>
   <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,109 +196,109 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>69,69%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,436 +310,430 @@
     <t>19,97%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>50,32%</t>
   </si>
   <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
   </si>
   <si>
     <t>80,03%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>49,68%</t>
   </si>
   <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
   </si>
   <si>
     <t>80,32%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>58,68%</t>
   </si>
   <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>88,04%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>41,32%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
   </si>
   <si>
     <t>74,98%</t>
   </si>
   <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>68,1%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>32,83%</t>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18495458-CE0C-44A8-89B0-99F24C6D61C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1621ED5B-B80B-4238-97C9-DFDD2E08721B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1902,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04338AB8-8988-4E85-9CF2-0DAC83097FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D026C7A3-6D19-4040-AA46-26ECE06AEF3F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2089,7 +2083,7 @@
         <v>101</v>
       </c>
       <c r="I5" s="7">
-        <v>110158</v>
+        <v>110159</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2140,7 +2134,7 @@
         <v>522</v>
       </c>
       <c r="I6" s="7">
-        <v>557083</v>
+        <v>557084</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2653,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93870F41-4E0D-4353-B0BB-1E5234BA4F35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6DCCA-10FD-40A2-B3F6-D14C37826050}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,7 +3087,7 @@
         <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3102,13 +3096,13 @@
         <v>27206</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -3117,13 +3111,13 @@
         <v>47427</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3132,13 @@
         <v>127588</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -3153,13 +3147,13 @@
         <v>29550</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
@@ -3168,13 +3162,13 @@
         <v>157137</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3236,13 @@
         <v>169085</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>520</v>
@@ -3257,13 +3251,13 @@
         <v>591843</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>689</v>
@@ -3272,13 +3266,13 @@
         <v>760928</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3287,13 @@
         <v>1183139</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -3308,13 +3302,13 @@
         <v>303524</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1428</v>
@@ -3323,13 +3317,13 @@
         <v>1486664</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P74B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5950096A-B85C-4A3C-98C9-53EE4DFE8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C96CBFD-9922-4A3D-98A2-0642464D63A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B52056DD-4BCA-41C0-B2AB-7FD6B4C30C4A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1B5F132D-4FD7-45EB-8DB5-092CF03F6DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1621ED5B-B80B-4238-97C9-DFDD2E08721B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75591180-CFAB-4B53-BF4E-A94652A7EC0D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1896,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D026C7A3-6D19-4040-AA46-26ECE06AEF3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C70BB7-8486-4E4F-A9CE-4613CD54C47A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2083,7 +2083,7 @@
         <v>101</v>
       </c>
       <c r="I5" s="7">
-        <v>110159</v>
+        <v>110158</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2134,7 +2134,7 @@
         <v>522</v>
       </c>
       <c r="I6" s="7">
-        <v>557084</v>
+        <v>557083</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2647,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6DCCA-10FD-40A2-B3F6-D14C37826050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF13BCD-C13B-42C2-A623-62211C5FAFA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3314,7 +3314,7 @@
         <v>1428</v>
       </c>
       <c r="N14" s="7">
-        <v>1486664</v>
+        <v>1486663</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>229</v>
@@ -3365,7 +3365,7 @@
         <v>2117</v>
       </c>
       <c r="N15" s="7">
-        <v>2247592</v>
+        <v>2247591</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
